--- a/OpenWRT编译make menuconfig配置及LUCI插件说明.xlsx
+++ b/OpenWRT编译make menuconfig配置及LUCI插件说明.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22323"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6D95BFF9847DF96018496F50A5FD6B3642F64EAB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeHub\AutoBuild-OpenWrt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="make menuconfig配置" sheetId="2" r:id="rId1"/>
     <sheet name="LUCI插件说明" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="411">
   <si>
     <t>OpenWrt 编译 menuconfig配置说明</t>
   </si>
@@ -1244,13 +1248,149 @@
     <t xml:space="preserve">PS：根据群友分享文件改EXCEL版方便标注编译时选择适合自己的插件，新手用的，有不对之处请诸位大神帮忙改进！
 PS：根据群友分享文件改EXCEL版方便标注编译时选择适合自己的插件，新手用的，有不对之处请诸位大神帮忙改进！   
 </t>
+  </si>
+  <si>
+    <r>
+      <t>黑色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>字体项在配置里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>部分项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>默认选中，带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>标注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>的按需选择，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>未带标注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>的请选中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>字体项必选</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>字体项为二选一(功能冲突项)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>项为不选</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF444444"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字体项可以不选，为附加功能，按需选择</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,6 +1456,62 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF444444"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1513,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1627,18 +1823,72 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1660,54 +1910,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,18 +1925,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2009,17 +2209,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.25" style="21" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="21" customWidth="1"/>
@@ -2028,18 +2228,18 @@
     <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="32.1" customHeight="1">
+    <row r="2" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +2263,7 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2273,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
@@ -2083,8 +2283,8 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -2093,8 +2293,8 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -2105,46 +2305,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="57"/>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
       <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="57"/>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
       <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
       <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="59" t="s">
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -2153,8 +2353,8 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="78"/>
       <c r="B13" s="27" t="s">
         <v>25</v>
       </c>
@@ -2163,8 +2363,8 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="79" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -2173,16 +2373,16 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="62"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="80"/>
       <c r="B15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -2191,35 +2391,35 @@
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="82"/>
       <c r="B17" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
       <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
       <c r="B19" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="66" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -2229,33 +2429,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="66" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="64"/>
+      <c r="B24" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -2263,73 +2463,73 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="67"/>
-      <c r="B33" s="66" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
+      <c r="B33" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -2337,33 +2537,33 @@
       </c>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="35" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="35"/>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="67"/>
-      <c r="B37" s="66" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="64"/>
+      <c r="B37" s="63" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -2371,41 +2571,41 @@
       </c>
       <c r="D37" s="35"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="37" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="35"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="37" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="35"/>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="67"/>
-      <c r="B42" s="66" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="64"/>
+      <c r="B42" s="63" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -2413,81 +2613,81 @@
       </c>
       <c r="D42" s="35"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="35" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="35"/>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="35"/>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="34" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="35"/>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="35"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="35"/>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="35"/>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="35"/>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="67"/>
-      <c r="B52" s="66" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="64"/>
+      <c r="B52" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="38" t="s">
@@ -2495,24 +2695,24 @@
       </c>
       <c r="D52" s="35"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="35"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="35"/>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="68"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
       <c r="B55" s="39" t="s">
         <v>78</v>
       </c>
@@ -2521,11 +2721,11 @@
       </c>
       <c r="D55" s="35"/>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="69" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="66" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="40" t="s">
@@ -2533,24 +2733,24 @@
       </c>
       <c r="D56" s="40"/>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="40"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="70"/>
-      <c r="B58" s="71"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="40"/>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="68"/>
       <c r="B59" s="40" t="s">
         <v>84</v>
       </c>
@@ -2559,11 +2759,11 @@
       </c>
       <c r="D59" s="40"/>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="72" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="69" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -2571,48 +2771,48 @@
       </c>
       <c r="D60" s="43"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="43" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="42"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="42"/>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="42"/>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="73"/>
-      <c r="B64" s="74"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="44" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="42"/>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="73"/>
-      <c r="B65" s="74"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="43" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="42"/>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="73"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
       <c r="B66" s="42" t="s">
         <v>94</v>
       </c>
@@ -2621,9 +2821,9 @@
       </c>
       <c r="D66" s="42"/>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="73"/>
-      <c r="B67" s="72" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="69" t="s">
         <v>96</v>
       </c>
       <c r="C67" s="42" t="s">
@@ -2631,16 +2831,16 @@
       </c>
       <c r="D67" s="42"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="73"/>
-      <c r="B68" s="74"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="42"/>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="73"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="70"/>
       <c r="B69" s="42" t="s">
         <v>99</v>
       </c>
@@ -2649,8 +2849,8 @@
       </c>
       <c r="D69" s="42"/>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="73"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="70"/>
       <c r="B70" s="46" t="s">
         <v>101</v>
       </c>
@@ -2659,9 +2859,9 @@
       </c>
       <c r="D70" s="42"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="73"/>
-      <c r="B71" s="72" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="70"/>
+      <c r="B71" s="69" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="42" t="s">
@@ -2669,43 +2869,43 @@
       </c>
       <c r="D71" s="42"/>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="42" t="s">
         <v>105</v>
       </c>
       <c r="D72" s="42"/>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="73"/>
-      <c r="B73" s="74"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="70"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="47" t="s">
         <v>106</v>
       </c>
       <c r="D73" s="42"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="73"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="70"/>
       <c r="B74" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="74"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="71"/>
       <c r="B75" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="75" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="72" t="s">
         <v>110</v>
       </c>
       <c r="C76" s="49" t="s">
@@ -2713,25 +2913,25 @@
       </c>
       <c r="D76" s="50"/>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="76"/>
-      <c r="B77" s="79"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="59"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="49" t="s">
         <v>112</v>
       </c>
       <c r="D77" s="50"/>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="76"/>
-      <c r="B78" s="80"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="49" t="s">
         <v>113</v>
       </c>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="76"/>
-      <c r="B79" s="75" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="58" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="50" t="s">
@@ -2739,32 +2939,32 @@
       </c>
       <c r="D79" s="50"/>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="76"/>
-      <c r="B80" s="76"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="50" t="s">
         <v>116</v>
       </c>
       <c r="D80" s="50"/>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="76"/>
-      <c r="B81" s="76"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="50" t="s">
         <v>117</v>
       </c>
       <c r="D81" s="50"/>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="76"/>
-      <c r="B82" s="77"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="50" t="s">
         <v>118</v>
       </c>
       <c r="D82" s="50"/>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="76"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="59"/>
       <c r="B83" s="50" t="s">
         <v>119</v>
       </c>
@@ -2773,9 +2973,9 @@
       </c>
       <c r="D83" s="50"/>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="76"/>
-      <c r="B84" s="81" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="59"/>
+      <c r="B84" s="57" t="s">
         <v>121</v>
       </c>
       <c r="C84" s="51" t="s">
@@ -2783,25 +2983,25 @@
       </c>
       <c r="D84" s="50"/>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="76"/>
-      <c r="B85" s="81"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="59"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="49" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="50"/>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="76"/>
-      <c r="B86" s="81"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="59"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="49" t="s">
         <v>124</v>
       </c>
       <c r="D86" s="50"/>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="76"/>
-      <c r="B87" s="81" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="59"/>
+      <c r="B87" s="57" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="50" t="s">
@@ -2809,114 +3009,114 @@
       </c>
       <c r="D87" s="50"/>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="76"/>
-      <c r="B88" s="81"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="59"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D88" s="50"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="76"/>
-      <c r="B89" s="81"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="59"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="50" t="s">
         <v>128</v>
       </c>
       <c r="D89" s="50"/>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="76"/>
-      <c r="B90" s="81"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="59"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="50" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="50"/>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="76"/>
-      <c r="B91" s="81"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="59"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D91" s="50"/>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="76"/>
-      <c r="B92" s="81"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="59"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="50" t="s">
         <v>131</v>
       </c>
       <c r="D92" s="50"/>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="76"/>
-      <c r="B93" s="81"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="59"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D93" s="50"/>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="76"/>
-      <c r="B94" s="81"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="59"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="50" t="s">
         <v>133</v>
       </c>
       <c r="D94" s="50"/>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="76"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="75" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="59"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="58" t="s">
         <v>134</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="76"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="76"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="59"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="59"/>
       <c r="D96" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="76"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="77"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="59"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="76"/>
-      <c r="B98" s="81"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="59"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="53" t="s">
         <v>138</v>
       </c>
       <c r="D98" s="50"/>
     </row>
-    <row r="99" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A99" s="76"/>
-      <c r="B99" s="81"/>
+    <row r="99" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="59"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="54" t="s">
         <v>139</v>
       </c>
       <c r="D99" s="50"/>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="76"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="59"/>
       <c r="B100" s="52" t="s">
         <v>140</v>
       </c>
       <c r="C100" s="50"/>
       <c r="D100" s="50"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="76"/>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="59"/>
       <c r="B101" s="49" t="s">
         <v>141</v>
       </c>
@@ -2925,34 +3125,68 @@
       </c>
       <c r="D101" s="50"/>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="76"/>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="59"/>
       <c r="B102" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C102" s="50"/>
       <c r="D102" s="50"/>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="77"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="60"/>
       <c r="B103" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C103" s="50"/>
       <c r="D103" s="50"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="107" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B107" s="94" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B108" s="91" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B109" s="92" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B110" s="93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B111" s="91" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B87:B99"/>
     <mergeCell ref="C95:C97"/>
@@ -2969,30 +3203,22 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
@@ -3000,18 +3226,18 @@
     <col min="4" max="4" width="53.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -3028,7 +3254,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>79</v>
       </c>
@@ -3045,24 +3271,24 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="89" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="56" t="s">
         <v>154</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
@@ -3079,7 +3305,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +3322,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>79</v>
       </c>
@@ -3115,7 +3341,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -3132,7 +3358,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -3149,24 +3375,24 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="89" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="56" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
@@ -3183,7 +3409,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
@@ -3200,24 +3426,24 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="89" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="56" t="s">
         <v>173</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -3234,7 +3460,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -3251,7 +3477,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -3268,7 +3494,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -3285,7 +3511,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -3302,7 +3528,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>79</v>
       </c>
@@ -3321,7 +3547,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -3338,7 +3564,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -3355,7 +3581,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>79</v>
       </c>
@@ -3372,7 +3598,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -3389,24 +3615,24 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="89" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="56" t="s">
         <v>195</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
@@ -3423,7 +3649,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -3440,7 +3666,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>79</v>
       </c>
@@ -3457,7 +3683,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
@@ -3474,7 +3700,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
@@ -3491,7 +3717,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3734,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -3525,7 +3751,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>79</v>
       </c>
@@ -3542,41 +3768,41 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="89" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="56" t="s">
         <v>213</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="89" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="56" t="s">
         <v>215</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>79</v>
       </c>
@@ -3595,7 +3821,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -3612,7 +3838,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -3629,7 +3855,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
@@ -3646,24 +3872,24 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="89" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="56" t="s">
         <v>225</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>79</v>
       </c>
@@ -3680,24 +3906,24 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="89" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="56" t="s">
         <v>229</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
@@ -3714,7 +3940,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
@@ -3731,7 +3957,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>79</v>
       </c>
@@ -3748,24 +3974,24 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="89" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="56" t="s">
         <v>237</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>79</v>
       </c>
@@ -3782,7 +4008,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>79</v>
       </c>
@@ -3801,7 +4027,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>79</v>
       </c>
@@ -3820,7 +4046,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>79</v>
       </c>
@@ -3837,7 +4063,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>79</v>
       </c>
@@ -3854,7 +4080,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>79</v>
       </c>
@@ -3871,7 +4097,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>79</v>
       </c>
@@ -3888,7 +4114,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>79</v>
       </c>
@@ -3907,7 +4133,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>79</v>
       </c>
@@ -3926,7 +4152,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>79</v>
       </c>
@@ -3943,7 +4169,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -3960,7 +4186,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>79</v>
       </c>
@@ -3977,7 +4203,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>79</v>
       </c>
@@ -3994,7 +4220,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>79</v>
       </c>
@@ -4013,24 +4239,24 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="89" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="89" t="s">
+      <c r="D60" s="56" t="s">
         <v>267</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>79</v>
       </c>
@@ -4047,7 +4273,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>79</v>
       </c>
@@ -4064,7 +4290,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>79</v>
       </c>
@@ -4081,7 +4307,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>79</v>
       </c>
@@ -4098,7 +4324,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>79</v>
       </c>
@@ -4115,7 +4341,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -4132,7 +4358,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
@@ -4149,7 +4375,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>79</v>
       </c>
@@ -4166,7 +4392,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>79</v>
       </c>
@@ -4185,7 +4411,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>79</v>
       </c>
@@ -4202,7 +4428,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>79</v>
       </c>
@@ -4219,7 +4445,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>79</v>
       </c>
@@ -4236,7 +4462,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>79</v>
       </c>
@@ -4253,24 +4479,24 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="89" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="89" t="s">
+      <c r="D74" s="56" t="s">
         <v>295</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
@@ -4287,7 +4513,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>79</v>
       </c>
@@ -4304,7 +4530,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -4321,7 +4547,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
@@ -4338,24 +4564,24 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="89" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="56" t="s">
         <v>305</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>79</v>
       </c>
@@ -4372,24 +4598,24 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="89" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="D81" s="89" t="s">
+      <c r="D81" s="56" t="s">
         <v>309</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>79</v>
       </c>
@@ -4406,24 +4632,24 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="89" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D83" s="89" t="s">
+      <c r="D83" s="56" t="s">
         <v>217</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>79</v>
       </c>
@@ -4442,7 +4668,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>79</v>
       </c>
@@ -4459,7 +4685,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>79</v>
       </c>
@@ -4476,7 +4702,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>79</v>
       </c>
@@ -4493,7 +4719,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>79</v>
       </c>
@@ -4510,7 +4736,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>79</v>
       </c>
@@ -4529,7 +4755,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>79</v>
       </c>
@@ -4546,24 +4772,24 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="89" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="D91" s="89" t="s">
+      <c r="D91" s="56" t="s">
         <v>328</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>79</v>
       </c>
@@ -4580,26 +4806,26 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="89" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="D93" s="89" t="s">
+      <c r="D93" s="56" t="s">
         <v>332</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="90"/>
-      <c r="B94" s="87" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="89"/>
+      <c r="B94" s="90" t="s">
         <v>331</v>
       </c>
       <c r="C94" s="18" t="s">
@@ -4612,9 +4838,9 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="90"/>
-      <c r="B95" s="87"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="89"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="18" t="s">
         <v>335</v>
       </c>
@@ -4625,9 +4851,9 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="90"/>
-      <c r="B96" s="87"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="89"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="18" t="s">
         <v>337</v>
       </c>
@@ -4638,9 +4864,9 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="90"/>
-      <c r="B97" s="87"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="89"/>
+      <c r="B97" s="90"/>
       <c r="C97" s="8" t="s">
         <v>339</v>
       </c>
@@ -4651,9 +4877,9 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="90"/>
-      <c r="B98" s="87"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="89"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="8" t="s">
         <v>341</v>
       </c>
@@ -4664,7 +4890,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>79</v>
       </c>
@@ -4683,7 +4909,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>79</v>
       </c>
@@ -4700,7 +4926,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>79</v>
       </c>
@@ -4717,7 +4943,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>79</v>
       </c>
@@ -4734,7 +4960,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>79</v>
       </c>
@@ -4751,7 +4977,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>79</v>
       </c>
@@ -4768,7 +4994,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>79</v>
       </c>
@@ -4785,7 +5011,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>79</v>
       </c>
@@ -4802,7 +5028,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>79</v>
       </c>
@@ -4819,7 +5045,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>79</v>
       </c>
@@ -4836,7 +5062,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>79</v>
       </c>
@@ -4853,7 +5079,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>79</v>
       </c>
@@ -4870,24 +5096,24 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B111" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C111" s="89" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="D111" s="89" t="s">
+      <c r="D111" s="56" t="s">
         <v>368</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>79</v>
       </c>
@@ -4904,7 +5130,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>79</v>
       </c>
@@ -4921,7 +5147,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>79</v>
       </c>
@@ -4940,24 +5166,24 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C115" s="89" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="89" t="s">
+      <c r="D115" s="56" t="s">
         <v>376</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>79</v>
       </c>
@@ -4974,7 +5200,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>79</v>
       </c>
@@ -4991,24 +5217,24 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C118" s="89" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="D118" s="89" t="s">
+      <c r="D118" s="56" t="s">
         <v>382</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>79</v>
       </c>
@@ -5025,7 +5251,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
         <v>79</v>
       </c>
@@ -5042,7 +5268,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>79</v>
       </c>
@@ -5061,7 +5287,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>79</v>
       </c>
@@ -5078,7 +5304,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>79</v>
       </c>
@@ -5095,7 +5321,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>79</v>
       </c>
@@ -5112,24 +5338,24 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C125" s="89" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="D125" s="89" t="s">
+      <c r="D125" s="56" t="s">
         <v>396</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>79</v>
       </c>
@@ -5146,7 +5372,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>79</v>
       </c>
@@ -5163,24 +5389,24 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" s="89" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="D128" s="89" t="s">
+      <c r="D128" s="56" t="s">
         <v>402</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>79</v>
       </c>
@@ -5199,13 +5425,13 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="85" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="87" t="s">
         <v>405</v>
       </c>
-      <c r="B130" s="86"/>
-      <c r="C130" s="86"/>
-      <c r="D130" s="86"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="88"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -5217,6 +5443,7 @@
     <mergeCell ref="A93:A98"/>
     <mergeCell ref="B94:B98"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
